--- a/excel/library.xlsx
+++ b/excel/library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weexi\PythonWorkspace\Solstice\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88BE5DE-1963-46C4-9293-8C02DDDA44EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FC864D-7813-43CD-B75E-2B7C550873BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{A2BFD644-BCED-4592-A777-17D26257EA4B}"/>
   </bookViews>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F916BEF0-FEE4-48D7-91A0-D9FFFAB446FB}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/excel/library.xlsx
+++ b/excel/library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weexi\PythonWorkspace\Solstice\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FC864D-7813-43CD-B75E-2B7C550873BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D359B6C-0227-4252-98C1-842FC6390D50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{A2BFD644-BCED-4592-A777-17D26257EA4B}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
